--- a/biology/Zoologie/Acosmeryx_miskini/Acosmeryx_miskini.xlsx
+++ b/biology/Zoologie/Acosmeryx_miskini/Acosmeryx_miskini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acosmeryx miskini est une espèce de papillons de la famille des Sphingidae, sous-famille des Macroglossinae, de la tribu des Macroglossini et du genre Acosmeryx. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure varie aux environs de 80 mm.
 Les imagos ont la face dorsale de l'aile antérieure tachée de brun et l'aile postérieure brun-rouille, avec des marques sombres de chaque côté de l'abdomen.
@@ -545,7 +559,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition
 L'espèce est connue en Nouvelle-Guinée et dans le nord-est de l'Australie.
@@ -577,12 +593,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Acosmeryx miskini a été décrite par l’entomologiste australien Richard Paget Murray, en 1873, sous le nom initial de Daphnusa miskini[1]. L'espèce est dédiée à l'entomologiste William Henry Miskin.
-La localité type est le Queensland.
-Synonymie
-Daphnusa miskini Murray, 1873  Protonyme</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce Acosmeryx miskini a été décrite par l’entomologiste australien Richard Paget Murray, en 1873, sous le nom initial de Daphnusa miskini. L'espèce est dédiée à l'entomologiste William Henry Miskin.
+La localité type est le Queensland.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acosmeryx_miskini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acosmeryx_miskini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Daphnusa miskini Murray, 1873  Protonyme</t>
         </is>
       </c>
     </row>
